--- a/data/audit/is/is_gened.xlsx
+++ b/data/audit/is/is_gened.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,1140 +448,3456 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---GenEd---Core@CMU</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>99-102</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---GenEd---Foundations---Communication</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>76-101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---GenEd---Foundations---Communication</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Mathematics</t>
+          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>80-210</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Principles of Computing</t>
+          <t>GenEd---GenEd---Foundations---Communication---Mini Courses</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15-110</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---Fundamentals of Programming and Computer Science</t>
+          <t>GenEd---GenEd---Foundations---Data Analysis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---15-121 or 15-122</t>
+          <t>GenEd---GenEd---Foundations---Data Analysis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15-121</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Technical Core---Computer Science Requirement---15-121 or 15-122</t>
+          <t>GenEd---GenEd---Foundations---Data Analysis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---First Year Colloquium</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>67-100</t>
+          <t>15-104</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Milieux</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>67-250</t>
+          <t>15-110</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Database Design and Development</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>67-262</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Application Design and Development</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>67-272</t>
+          <t>17-200</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05-391</t>
+          <t>17-450</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>05-410</t>
+          <t>19-211</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>05-452</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---HCI Requirement</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>05-897</t>
+          <t>67-220</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Foundations of Software Engineering</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>67-240</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Information Systems Consulting Project</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>67-373</t>
+          <t>70-455</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>67-382</t>
+          <t>73-265</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Core---Managing Digital Transformation</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>95-422</t>
+          <t>76-314</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>76-388</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>51-261</t>
+          <t>80-325</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>51-262</t>
+          <t>82-387</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>67-202</t>
+          <t>84-267</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>67-265</t>
+          <t>88-300</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Computational Thinking</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>67-338</t>
+          <t>88-312</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>70-321</t>
+          <t>70-334</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>70-340</t>
+          <t>76-245</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>70-341</t>
+          <t>76-247</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>70-342</t>
+          <t>76-259</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>79-149</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>84-250</t>
+          <t>79-204</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>85-341</t>
+          <t>79-211</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>88-341</t>
+          <t>79-212</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>88-418</t>
+          <t>79-220</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Professional Communications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>88-419</t>
+          <t>79-225</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>79-248</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>79-262</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>79-265</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>79-297</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>36-303</t>
+          <t>79-300</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>79-314</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>79-349</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>36-350</t>
+          <t>79-367</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>36-401</t>
+          <t>79-392</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>36-402</t>
+          <t>79-393</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>67-357</t>
+          <t>79-415</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>67-364</t>
+          <t>79-419</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>80-330</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>82-180</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>80-305</t>
+          <t>82-215</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>88-223</t>
+          <t>82-234</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>88-251</t>
+          <t>82-270</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Quantitative Analysis and Research Methods</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>88-252</t>
+          <t>82-273</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05-470</t>
+          <t>82-281</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>17-356</t>
+          <t>82-294</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>67-443</t>
+          <t>82-295</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Information Systems Breadth---Innovation and Entrepreneurship</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>67-474</t>
+          <t>82-297</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11-685</t>
+          <t>84-319</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15-281</t>
+          <t>84-324</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15-288</t>
+          <t>84-325</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>84-328</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>67-364</t>
+          <t>84-336</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11-411</t>
+          <t>84-355</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15-282</t>
+          <t>84-365</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>67-212</t>
+          <t>84-380</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>67-379</t>
+          <t>84-387</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>67-357</t>
+          <t>84-389</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>67-410</t>
+          <t>84-393</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70-374</t>
+          <t>85-221</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>70-469</t>
+          <t>85-241</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Contextual Thinking</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>70-462</t>
+          <t>88-234</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Data Science Applications</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>76-289</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Data Science---Data Science Concentration---Summative Course</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>67-426</t>
+          <t>76-324</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>67-318</t>
+          <t>76-357</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>67-323</t>
+          <t>76-386</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>67-352</t>
+          <t>79-120</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Enabling Methods, Techniques and Tools</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>70-443</t>
+          <t>79-145</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>67-220</t>
+          <t>79-227</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>67-354</t>
+          <t>79-229</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>70-318</t>
+          <t>79-230</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>70-387</t>
+          <t>79-269</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Orthogonal Topics</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>70-342</t>
+          <t>79-272</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Digitalization---Digitalization Concentration---Summative Course</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>67-425</t>
+          <t>79-273</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>15-316</t>
+          <t>79-275</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>67-223</t>
+          <t>79-284</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>67-380</t>
+          <t>79-288</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>67-301</t>
+          <t>79-292</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>67-367</t>
+          <t>79-293</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>67-384</t>
+          <t>79-391</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Technical Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>67-404</t>
+          <t>79-458</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>17-334</t>
+          <t>82-179</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>67-313</t>
+          <t>82-201</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BS in Information Systems---Concentration---Information Security and Privacy---Information Security and Privacy Concentration---Regulatory and Behavioral Core</t>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>67-415</t>
+          <t>82-202</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>82-212</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>82-217</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>82-222</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>82-225</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>82-232</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>82-235</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>82-239</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>82-241</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>82-242</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>82-262</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>82-272</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>82-275</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>82-280</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>82-283</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>82-286</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>82-292</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>82-303</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>82-304</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>82-311</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>82-312</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>82-313</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>82-320</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>82-331</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>82-323</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>82-332</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>82-342</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>82-343</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>82-345</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>82-371</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>82-372</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>84-306</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>84-323</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Intercultural and Global Inquiry</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>84-362</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>03-113</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>03-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>03-124</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>03-125</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>03-128</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>03-129</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>03-132</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>03-133</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>03-135</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>09-108</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>09-291</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>09-303</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>09-403</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>24-291</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>33-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>33-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>33-114</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>33-115</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>33-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>33-124</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>76-328</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>79-304</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>80-221</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>80-226</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>85-105</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>85-106</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>85-219</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>85-359</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>85-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>88-130</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>88-275</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D4-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>76-210</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>76-233</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>79-101</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>79-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>79-112</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>79-160</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>79-189</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>79-203</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>79-223</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>79-226</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>79-234</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>79-245</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>79-255</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>79-266</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>80-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>80-101</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>80-130</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>80-180</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>82-282</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>84-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>D5-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>D5-002</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>73-014</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>73-102</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>73-103</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>73-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>79-201</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>84-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>84-226</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>84-275</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>85-102</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>85-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>85-211</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>88-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>88-230</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>88-255</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>D6-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>21-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>51-237</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>51-368</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>62-142</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>70-350</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>76-239</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>76-260</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>76-261</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>76-265</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>76-278</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>79-317</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>79-345</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>79-465</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>82-119</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>82-137</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>82-255</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>82-278</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>82-279</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>82-285</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>82-380</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>D7-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>15-155</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>21-102</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>21-127</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>73-155</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>73-347</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>79-175</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>80-210</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>80-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>80-211</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>80-312</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>D8-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>05-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>17-313</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>19-101</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>36-315</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>48-095</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>49-101</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>70-100</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>70-122</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>70-246</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>70-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>76-270</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>85-107</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>88-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>88-223</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>88-235</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>D9-001</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>66-122</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>66-132</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>66-134</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>66-138</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>66-146</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>66-147</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>66-151</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>66-181</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>66-182</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>36-301</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>66-236</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>76-219</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>76-327</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>76-442</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>79-210</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>79-215</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>79-237</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>79-270</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>79-276</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>79-313</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>79-321</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>79-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>79-378</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>79-380</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>79-432</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>80-234</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>80-245</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>80-324</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>80-334</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>80-335</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>80-348</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>82-260</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>82-289</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>82-299</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>82-399</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>84-309</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>84-322</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>84-352</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>84-367</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>85-350</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>88-221</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>99-262</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>99-265</t>
         </is>
       </c>
     </row>

--- a/data/audit/is/is_gened.xlsx
+++ b/data/audit/is/is_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B289"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>99-102</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>76-101</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>76-102</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>76-106</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>76-107</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>76-108</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>36-200</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>70-207</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>15-104</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>15-110</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>15-112</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>17-200</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>17-450</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>19-211</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>67-220</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>67-240</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>70-455</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>73-265</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>76-314</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>76-388</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>80-325</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>82-387</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>84-267</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>88-300</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>88-312</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>70-334</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>76-245</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>76-247</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>76-259</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>79-149</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>79-204</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>79-211</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>79-212</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>79-220</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>79-225</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>79-248</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>79-262</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>79-265</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>79-297</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>79-300</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>79-314</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>79-349</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>79-367</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>79-392</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>79-393</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>79-415</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>79-419</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>80-330</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>82-180</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>82-215</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>82-234</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>82-270</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>82-273</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>82-281</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>82-294</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>82-295</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>82-297</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>84-319</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>84-324</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>84-325</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>84-328</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>84-336</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>84-355</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>84-365</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +1451,9 @@
           <t>84-380</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +1466,9 @@
           <t>84-387</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +1481,9 @@
           <t>84-389</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +1496,9 @@
           <t>84-393</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +1511,9 @@
           <t>85-221</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +1526,9 @@
           <t>85-241</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +1541,9 @@
           <t>88-234</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +1556,9 @@
           <t>76-289</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +1571,9 @@
           <t>76-324</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +1586,9 @@
           <t>76-357</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +1601,9 @@
           <t>76-386</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +1616,9 @@
           <t>79-120</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +1631,9 @@
           <t>79-145</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +1646,9 @@
           <t>79-227</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +1661,9 @@
           <t>79-229</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +1676,9 @@
           <t>79-230</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +1691,9 @@
           <t>79-269</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +1706,9 @@
           <t>79-272</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +1721,9 @@
           <t>79-273</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +1736,9 @@
           <t>79-275</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +1751,9 @@
           <t>79-284</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +1766,9 @@
           <t>79-288</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +1781,9 @@
           <t>79-292</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +1796,9 @@
           <t>79-293</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +1811,9 @@
           <t>79-391</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +1826,9 @@
           <t>79-458</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +1841,9 @@
           <t>82-179</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +1856,9 @@
           <t>82-201</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1584,6 +1871,9 @@
           <t>82-202</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1596,6 +1886,9 @@
           <t>82-212</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1608,6 +1901,9 @@
           <t>82-217</t>
         </is>
       </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1620,6 +1916,9 @@
           <t>82-222</t>
         </is>
       </c>
+      <c r="C99" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1632,6 +1931,9 @@
           <t>82-225</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1644,6 +1946,9 @@
           <t>82-232</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +1961,9 @@
           <t>82-235</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1668,6 +1976,9 @@
           <t>82-239</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1680,6 +1991,9 @@
           <t>82-241</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1692,6 +2006,9 @@
           <t>82-242</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1704,6 +2021,9 @@
           <t>82-262</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1716,6 +2036,9 @@
           <t>82-272</t>
         </is>
       </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1728,6 +2051,9 @@
           <t>82-275</t>
         </is>
       </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1740,6 +2066,9 @@
           <t>82-280</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1752,6 +2081,9 @@
           <t>82-283</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1764,6 +2096,9 @@
           <t>82-286</t>
         </is>
       </c>
+      <c r="C111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1776,6 +2111,9 @@
           <t>82-292</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1788,6 +2126,9 @@
           <t>82-303</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1800,6 +2141,9 @@
           <t>82-304</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1812,6 +2156,9 @@
           <t>82-311</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1824,6 +2171,9 @@
           <t>82-312</t>
         </is>
       </c>
+      <c r="C116" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1836,6 +2186,9 @@
           <t>82-313</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1848,6 +2201,9 @@
           <t>82-320</t>
         </is>
       </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1860,6 +2216,9 @@
           <t>82-331</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1872,6 +2231,9 @@
           <t>82-323</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1884,6 +2246,9 @@
           <t>82-332</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1896,6 +2261,9 @@
           <t>82-342</t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1908,6 +2276,9 @@
           <t>82-343</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1920,6 +2291,9 @@
           <t>82-345</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1932,6 +2306,9 @@
           <t>82-371</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1944,6 +2321,9 @@
           <t>82-372</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1956,6 +2336,9 @@
           <t>84-306</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1968,6 +2351,9 @@
           <t>84-323</t>
         </is>
       </c>
+      <c r="C128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1980,6 +2366,9 @@
           <t>84-362</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1992,6 +2381,9 @@
           <t>03-113</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2004,6 +2396,9 @@
           <t>03-120</t>
         </is>
       </c>
+      <c r="C131" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2016,6 +2411,9 @@
           <t>03-124</t>
         </is>
       </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2028,6 +2426,9 @@
           <t>03-125</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2040,6 +2441,9 @@
           <t>03-128</t>
         </is>
       </c>
+      <c r="C134" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2052,6 +2456,9 @@
           <t>03-129</t>
         </is>
       </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2064,6 +2471,9 @@
           <t>03-132</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2076,6 +2486,9 @@
           <t>03-133</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2088,6 +2501,9 @@
           <t>03-135</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2100,6 +2516,9 @@
           <t>09-108</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2112,6 +2531,9 @@
           <t>09-291</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2124,6 +2546,9 @@
           <t>09-303</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2136,6 +2561,9 @@
           <t>09-403</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2148,6 +2576,9 @@
           <t>24-291</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2160,6 +2591,9 @@
           <t>33-100</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2172,6 +2606,9 @@
           <t>33-104</t>
         </is>
       </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2184,6 +2621,9 @@
           <t>33-114</t>
         </is>
       </c>
+      <c r="C146" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2196,6 +2636,9 @@
           <t>33-115</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2208,6 +2651,9 @@
           <t>33-120</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2220,6 +2666,9 @@
           <t>33-124</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2232,6 +2681,9 @@
           <t>76-328</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2244,6 +2696,9 @@
           <t>79-304</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2256,6 +2711,9 @@
           <t>80-221</t>
         </is>
       </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2268,6 +2726,9 @@
           <t>80-226</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2280,6 +2741,9 @@
           <t>85-105</t>
         </is>
       </c>
+      <c r="C154" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2292,6 +2756,9 @@
           <t>85-106</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2304,6 +2771,9 @@
           <t>85-219</t>
         </is>
       </c>
+      <c r="C156" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2316,6 +2786,9 @@
           <t>85-359</t>
         </is>
       </c>
+      <c r="C157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2328,6 +2801,9 @@
           <t>85-360</t>
         </is>
       </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2340,6 +2816,9 @@
           <t>88-130</t>
         </is>
       </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2352,6 +2831,9 @@
           <t>88-275</t>
         </is>
       </c>
+      <c r="C160" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2364,6 +2846,9 @@
           <t>D4-001</t>
         </is>
       </c>
+      <c r="C161" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2376,6 +2861,9 @@
           <t>76-210</t>
         </is>
       </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2388,6 +2876,9 @@
           <t>76-233</t>
         </is>
       </c>
+      <c r="C163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2400,6 +2891,9 @@
           <t>79-101</t>
         </is>
       </c>
+      <c r="C164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2412,6 +2906,9 @@
           <t>79-104</t>
         </is>
       </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2424,6 +2921,9 @@
           <t>79-112</t>
         </is>
       </c>
+      <c r="C166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2436,6 +2936,9 @@
           <t>79-160</t>
         </is>
       </c>
+      <c r="C167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2448,6 +2951,9 @@
           <t>79-189</t>
         </is>
       </c>
+      <c r="C168" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2460,6 +2966,9 @@
           <t>79-203</t>
         </is>
       </c>
+      <c r="C169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2472,6 +2981,9 @@
           <t>79-223</t>
         </is>
       </c>
+      <c r="C170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2484,6 +2996,9 @@
           <t>79-226</t>
         </is>
       </c>
+      <c r="C171" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2496,6 +3011,9 @@
           <t>79-234</t>
         </is>
       </c>
+      <c r="C172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2508,6 +3026,9 @@
           <t>79-245</t>
         </is>
       </c>
+      <c r="C173" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2520,6 +3041,9 @@
           <t>79-255</t>
         </is>
       </c>
+      <c r="C174" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2532,6 +3056,9 @@
           <t>79-266</t>
         </is>
       </c>
+      <c r="C175" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2544,6 +3071,9 @@
           <t>80-100</t>
         </is>
       </c>
+      <c r="C176" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2556,6 +3086,9 @@
           <t>80-101</t>
         </is>
       </c>
+      <c r="C177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2568,6 +3101,9 @@
           <t>80-130</t>
         </is>
       </c>
+      <c r="C178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2580,6 +3116,9 @@
           <t>80-180</t>
         </is>
       </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2592,6 +3131,9 @@
           <t>82-282</t>
         </is>
       </c>
+      <c r="C180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2604,6 +3146,9 @@
           <t>84-120</t>
         </is>
       </c>
+      <c r="C181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2616,6 +3161,9 @@
           <t>D5-001</t>
         </is>
       </c>
+      <c r="C182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2628,6 +3176,9 @@
           <t>D5-002</t>
         </is>
       </c>
+      <c r="C183" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2640,6 +3191,9 @@
           <t>73-014</t>
         </is>
       </c>
+      <c r="C184" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2652,6 +3206,9 @@
           <t>73-102</t>
         </is>
       </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2664,6 +3221,9 @@
           <t>73-103</t>
         </is>
       </c>
+      <c r="C186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2676,6 +3236,9 @@
           <t>73-104</t>
         </is>
       </c>
+      <c r="C187" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2688,6 +3251,9 @@
           <t>79-201</t>
         </is>
       </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2700,6 +3266,9 @@
           <t>84-104</t>
         </is>
       </c>
+      <c r="C189" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2712,6 +3281,9 @@
           <t>84-226</t>
         </is>
       </c>
+      <c r="C190" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2724,6 +3296,9 @@
           <t>84-275</t>
         </is>
       </c>
+      <c r="C191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2736,6 +3311,9 @@
           <t>85-102</t>
         </is>
       </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2748,6 +3326,9 @@
           <t>85-104</t>
         </is>
       </c>
+      <c r="C193" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2760,6 +3341,9 @@
           <t>85-211</t>
         </is>
       </c>
+      <c r="C194" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2772,6 +3356,9 @@
           <t>88-120</t>
         </is>
       </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2784,6 +3371,9 @@
           <t>88-230</t>
         </is>
       </c>
+      <c r="C196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2796,6 +3386,9 @@
           <t>88-255</t>
         </is>
       </c>
+      <c r="C197" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2808,6 +3401,9 @@
           <t>D6-001</t>
         </is>
       </c>
+      <c r="C198" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2820,6 +3416,9 @@
           <t>21-150</t>
         </is>
       </c>
+      <c r="C199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2832,6 +3431,9 @@
           <t>51-237</t>
         </is>
       </c>
+      <c r="C200" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2844,6 +3446,9 @@
           <t>51-368</t>
         </is>
       </c>
+      <c r="C201" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2856,6 +3461,9 @@
           <t>62-142</t>
         </is>
       </c>
+      <c r="C202" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2868,6 +3476,9 @@
           <t>70-350</t>
         </is>
       </c>
+      <c r="C203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2880,6 +3491,9 @@
           <t>76-239</t>
         </is>
       </c>
+      <c r="C204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2892,6 +3506,9 @@
           <t>76-260</t>
         </is>
       </c>
+      <c r="C205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2904,6 +3521,9 @@
           <t>76-261</t>
         </is>
       </c>
+      <c r="C206" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2916,6 +3536,9 @@
           <t>76-265</t>
         </is>
       </c>
+      <c r="C207" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2928,6 +3551,9 @@
           <t>76-278</t>
         </is>
       </c>
+      <c r="C208" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2940,6 +3566,9 @@
           <t>79-317</t>
         </is>
       </c>
+      <c r="C209" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2952,6 +3581,9 @@
           <t>79-345</t>
         </is>
       </c>
+      <c r="C210" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2964,6 +3596,9 @@
           <t>79-465</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2976,6 +3611,9 @@
           <t>82-119</t>
         </is>
       </c>
+      <c r="C212" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2988,6 +3626,9 @@
           <t>82-137</t>
         </is>
       </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3000,6 +3641,9 @@
           <t>82-255</t>
         </is>
       </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3012,6 +3656,9 @@
           <t>82-278</t>
         </is>
       </c>
+      <c r="C215" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3024,6 +3671,9 @@
           <t>82-279</t>
         </is>
       </c>
+      <c r="C216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3036,6 +3686,9 @@
           <t>82-285</t>
         </is>
       </c>
+      <c r="C217" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3048,6 +3701,9 @@
           <t>82-380</t>
         </is>
       </c>
+      <c r="C218" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3060,6 +3716,9 @@
           <t>D7-001</t>
         </is>
       </c>
+      <c r="C219" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3072,6 +3731,9 @@
           <t>15-155</t>
         </is>
       </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3084,6 +3746,9 @@
           <t>21-102</t>
         </is>
       </c>
+      <c r="C221" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3096,6 +3761,9 @@
           <t>21-127</t>
         </is>
       </c>
+      <c r="C222" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3108,6 +3776,9 @@
           <t>73-155</t>
         </is>
       </c>
+      <c r="C223" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3120,6 +3791,9 @@
           <t>73-347</t>
         </is>
       </c>
+      <c r="C224" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3132,6 +3806,9 @@
           <t>79-175</t>
         </is>
       </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3144,6 +3821,9 @@
           <t>80-210</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3156,6 +3836,9 @@
           <t>80-150</t>
         </is>
       </c>
+      <c r="C227" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3168,6 +3851,9 @@
           <t>80-211</t>
         </is>
       </c>
+      <c r="C228" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3180,6 +3866,9 @@
           <t>80-312</t>
         </is>
       </c>
+      <c r="C229" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3192,6 +3881,9 @@
           <t>D8-001</t>
         </is>
       </c>
+      <c r="C230" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3204,6 +3896,9 @@
           <t>05-360</t>
         </is>
       </c>
+      <c r="C231" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3216,6 +3911,9 @@
           <t>17-313</t>
         </is>
       </c>
+      <c r="C232" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3228,6 +3926,9 @@
           <t>19-101</t>
         </is>
       </c>
+      <c r="C233" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3240,6 +3941,9 @@
           <t>36-315</t>
         </is>
       </c>
+      <c r="C234" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3252,6 +3956,9 @@
           <t>48-095</t>
         </is>
       </c>
+      <c r="C235" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3264,6 +3971,9 @@
           <t>49-101</t>
         </is>
       </c>
+      <c r="C236" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3276,6 +3986,9 @@
           <t>70-100</t>
         </is>
       </c>
+      <c r="C237" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3288,6 +4001,9 @@
           <t>70-122</t>
         </is>
       </c>
+      <c r="C238" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3300,6 +4016,9 @@
           <t>70-246</t>
         </is>
       </c>
+      <c r="C239" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3312,6 +4031,9 @@
           <t>70-415</t>
         </is>
       </c>
+      <c r="C240" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3324,6 +4046,9 @@
           <t>76-270</t>
         </is>
       </c>
+      <c r="C241" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3336,6 +4061,9 @@
           <t>85-107</t>
         </is>
       </c>
+      <c r="C242" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3348,6 +4076,9 @@
           <t>88-150</t>
         </is>
       </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3360,6 +4091,9 @@
           <t>88-223</t>
         </is>
       </c>
+      <c r="C244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3372,6 +4106,9 @@
           <t>88-235</t>
         </is>
       </c>
+      <c r="C245" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3384,6 +4121,9 @@
           <t>D9-001</t>
         </is>
       </c>
+      <c r="C246" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3396,6 +4136,9 @@
           <t>66-122</t>
         </is>
       </c>
+      <c r="C247" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3408,6 +4151,9 @@
           <t>66-132</t>
         </is>
       </c>
+      <c r="C248" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3420,6 +4166,9 @@
           <t>66-134</t>
         </is>
       </c>
+      <c r="C249" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3432,6 +4181,9 @@
           <t>66-138</t>
         </is>
       </c>
+      <c r="C250" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3444,6 +4196,9 @@
           <t>66-146</t>
         </is>
       </c>
+      <c r="C251" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3456,6 +4211,9 @@
           <t>66-147</t>
         </is>
       </c>
+      <c r="C252" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3468,6 +4226,9 @@
           <t>66-151</t>
         </is>
       </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3480,6 +4241,9 @@
           <t>66-181</t>
         </is>
       </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3492,6 +4256,9 @@
           <t>66-182</t>
         </is>
       </c>
+      <c r="C255" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3504,6 +4271,9 @@
           <t>36-301</t>
         </is>
       </c>
+      <c r="C256" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3516,6 +4286,9 @@
           <t>66-236</t>
         </is>
       </c>
+      <c r="C257" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3528,6 +4301,9 @@
           <t>76-219</t>
         </is>
       </c>
+      <c r="C258" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3540,6 +4316,9 @@
           <t>76-327</t>
         </is>
       </c>
+      <c r="C259" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3552,6 +4331,9 @@
           <t>76-442</t>
         </is>
       </c>
+      <c r="C260" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3564,6 +4346,9 @@
           <t>79-210</t>
         </is>
       </c>
+      <c r="C261" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3576,6 +4361,9 @@
           <t>79-215</t>
         </is>
       </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3588,6 +4376,9 @@
           <t>79-237</t>
         </is>
       </c>
+      <c r="C263" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3600,6 +4391,9 @@
           <t>79-270</t>
         </is>
       </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3612,6 +4406,9 @@
           <t>79-276</t>
         </is>
       </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3624,6 +4421,9 @@
           <t>79-313</t>
         </is>
       </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3636,6 +4436,9 @@
           <t>79-321</t>
         </is>
       </c>
+      <c r="C267" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3648,6 +4451,9 @@
           <t>79-360</t>
         </is>
       </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3660,6 +4466,9 @@
           <t>79-378</t>
         </is>
       </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3672,6 +4481,9 @@
           <t>79-380</t>
         </is>
       </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3684,6 +4496,9 @@
           <t>79-432</t>
         </is>
       </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3696,6 +4511,9 @@
           <t>80-234</t>
         </is>
       </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3708,6 +4526,9 @@
           <t>80-245</t>
         </is>
       </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3720,6 +4541,9 @@
           <t>80-324</t>
         </is>
       </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3732,6 +4556,9 @@
           <t>80-334</t>
         </is>
       </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3744,6 +4571,9 @@
           <t>80-335</t>
         </is>
       </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3756,6 +4586,9 @@
           <t>80-348</t>
         </is>
       </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3768,6 +4601,9 @@
           <t>82-260</t>
         </is>
       </c>
+      <c r="C278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3780,6 +4616,9 @@
           <t>82-289</t>
         </is>
       </c>
+      <c r="C279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3792,6 +4631,9 @@
           <t>82-299</t>
         </is>
       </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3804,6 +4646,9 @@
           <t>82-399</t>
         </is>
       </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3816,6 +4661,9 @@
           <t>84-309</t>
         </is>
       </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3828,6 +4676,9 @@
           <t>84-322</t>
         </is>
       </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3840,6 +4691,9 @@
           <t>84-352</t>
         </is>
       </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3852,6 +4706,9 @@
           <t>84-367</t>
         </is>
       </c>
+      <c r="C285" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3864,6 +4721,9 @@
           <t>85-350</t>
         </is>
       </c>
+      <c r="C286" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3876,6 +4736,9 @@
           <t>88-221</t>
         </is>
       </c>
+      <c r="C287" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3888,6 +4751,9 @@
           <t>99-262</t>
         </is>
       </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3899,6 +4765,9 @@
         <is>
           <t>99-265</t>
         </is>
+      </c>
+      <c r="C289" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/audit/is/is_gened.xlsx
+++ b/data/audit/is/is_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>79-349</t>
+          <t>79-367</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>79-367</t>
+          <t>79-392</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>79-392</t>
+          <t>79-393</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>79-393</t>
+          <t>79-415</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>79-415</t>
+          <t>79-419</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>79-419</t>
+          <t>80-330</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>80-330</t>
+          <t>82-180</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>82-180</t>
+          <t>82-215</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>82-215</t>
+          <t>82-234</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>82-234</t>
+          <t>82-253</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>62-142</t>
+          <t>60-142</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>70-350</t>
+          <t>62-142</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>76-239</t>
+          <t>70-350</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>76-260</t>
+          <t>76-239</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>76-261</t>
+          <t>76-260</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>76-265</t>
+          <t>76-261</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>76-278</t>
+          <t>76-265</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>79-317</t>
+          <t>76-278</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>79-345</t>
+          <t>79-317</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>79-465</t>
+          <t>79-345</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>82-119</t>
+          <t>79-465</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>82-137</t>
+          <t>82-119</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>82-255</t>
+          <t>82-130</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>82-278</t>
+          <t>82-137</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>82-279</t>
+          <t>82-237</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>82-285</t>
+          <t>82-255</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>82-380</t>
+          <t>82-278</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>D7-001</t>
+          <t>82-279</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3723,12 +3723,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>15-155</t>
+          <t>82-285</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3738,12 +3738,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>21-102</t>
+          <t>82-380</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3753,12 +3753,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>D7-001</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>73-155</t>
+          <t>15-155</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>73-347</t>
+          <t>21-102</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>79-175</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>80-210</t>
+          <t>73-155</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>80-150</t>
+          <t>73-347</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>80-211</t>
+          <t>79-175</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>80-312</t>
+          <t>80-210</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>D8-001</t>
+          <t>80-150</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>05-360</t>
+          <t>80-211</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>80-312</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,12 +3918,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>19-101</t>
+          <t>D8-001</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>05-360</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>48-095</t>
+          <t>17-313</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>49-101</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>70-100</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>70-122</t>
+          <t>48-095</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>70-246</t>
+          <t>49-101</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>70-415</t>
+          <t>70-100</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>70-122</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>85-107</t>
+          <t>70-246</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>88-150</t>
+          <t>70-415</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>88-223</t>
+          <t>76-270</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>88-235</t>
+          <t>85-107</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>D9-001</t>
+          <t>88-150</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,12 +4128,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>66-122</t>
+          <t>88-223</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4143,12 +4143,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>66-132</t>
+          <t>88-235</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4158,12 +4158,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>66-134</t>
+          <t>D9-001</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>66-138</t>
+          <t>66-122</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>66-146</t>
+          <t>66-132</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>66-147</t>
+          <t>66-134</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>66-151</t>
+          <t>66-138</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>66-181</t>
+          <t>66-146</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>66-182</t>
+          <t>66-147</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4263,12 +4263,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>36-301</t>
+          <t>66-151</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4278,12 +4278,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>66-236</t>
+          <t>66-181</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4293,12 +4293,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>76-219</t>
+          <t>66-182</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>76-327</t>
+          <t>36-301</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>76-442</t>
+          <t>66-236</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>79-210</t>
+          <t>76-219</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>79-215</t>
+          <t>76-327</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>79-237</t>
+          <t>76-442</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>79-270</t>
+          <t>79-210</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>79-276</t>
+          <t>79-215</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>79-313</t>
+          <t>79-237</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>79-321</t>
+          <t>79-270</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>79-360</t>
+          <t>79-276</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>79-378</t>
+          <t>79-313</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>79-380</t>
+          <t>79-321</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>79-432</t>
+          <t>79-349</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>80-234</t>
+          <t>79-360</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>80-245</t>
+          <t>79-378</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>80-324</t>
+          <t>79-380</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>80-334</t>
+          <t>79-432</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>80-335</t>
+          <t>80-234</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>80-348</t>
+          <t>80-245</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>82-260</t>
+          <t>80-324</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>82-289</t>
+          <t>80-334</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>82-299</t>
+          <t>80-335</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>82-399</t>
+          <t>80-348</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>84-309</t>
+          <t>82-184</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>84-322</t>
+          <t>82-224</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>84-352</t>
+          <t>82-260</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>84-367</t>
+          <t>82-289</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>85-350</t>
+          <t>82-299</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>88-221</t>
+          <t>82-399</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>99-262</t>
+          <t>84-309</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4763,10 +4763,115 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
+          <t>84-322</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>84-352</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>84-367</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>85-350</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>88-221</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>88-285</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>99-262</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
           <t>99-265</t>
         </is>
       </c>
-      <c r="C289" t="n">
+      <c r="C296" t="n">
         <v>9</v>
       </c>
     </row>

--- a/data/audit/is/is_gened.xlsx
+++ b/data/audit/is/is_gened.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145">
@@ -2838,7 +2838,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Foundations---Scientific Inquiry</t>
+          <t>GenEd---GenEd---Foundations---Scientific Inquiry---D4-001</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>79-266</t>
+          <t>79-261 (F24 and beyond)</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>80-100</t>
+          <t>79-266</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>80-101</t>
+          <t>80-100</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>80-130</t>
+          <t>80-101</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>80-180</t>
+          <t>80-130</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>82-282</t>
+          <t>80-180</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>84-120</t>
+          <t>82-282</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>D5-001</t>
+          <t>84-120</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -3168,12 +3168,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities---D5-001</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>D5-002</t>
+          <t>D5-001</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -3183,12 +3183,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Humanities---D5-002</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>73-014</t>
+          <t>D5-002</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-014</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>73-102</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>73-104</t>
+          <t>73-103</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>79-201</t>
+          <t>73-104</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>84-104</t>
+          <t>79-201</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>84-226</t>
+          <t>84-104</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>84-275</t>
+          <t>84-226</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>85-102</t>
+          <t>84-275</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>85-104</t>
+          <t>85-102</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-104</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>88-120</t>
+          <t>85-211</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>88-230</t>
+          <t>88-120</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>88-255</t>
+          <t>88-230</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>D6-001</t>
+          <t>88-255</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3408,12 +3408,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Social Sciences---D6-001</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>21-150</t>
+          <t>D6-001</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>51-237</t>
+          <t>21-150</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>51-368</t>
+          <t>51-237</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>60-142</t>
+          <t>51-368</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3473,11 +3473,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>62-142</t>
+          <t>60-142</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -3488,11 +3488,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>70-350</t>
+          <t>62-142</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>76-239</t>
+          <t>70-350</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>76-260</t>
+          <t>76-239</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>76-261</t>
+          <t>76-260</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>76-265</t>
+          <t>76-261</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>76-278</t>
+          <t>76-265</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>79-317</t>
+          <t>76-278</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>79-345</t>
+          <t>79-317</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>79-465</t>
+          <t>79-345</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>82-119</t>
+          <t>79-465</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>82-130</t>
+          <t>82-119</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>82-137</t>
+          <t>82-130</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>82-237</t>
+          <t>82-137</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>82-255</t>
+          <t>82-237</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>82-278</t>
+          <t>82-255</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>82-279</t>
+          <t>82-278</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>82-285</t>
+          <t>82-279</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>82-380</t>
+          <t>82-285</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>D7-001</t>
+          <t>82-380</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3768,12 +3768,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---The Arts---D7-001</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>15-155</t>
+          <t>D7-001</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>21-102</t>
+          <t>15-155</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-102</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>73-155</t>
+          <t>21-127</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>73-347</t>
+          <t>73-155</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>79-175</t>
+          <t>73-347</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>80-210</t>
+          <t>79-175</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>80-150</t>
+          <t>80-210</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>80-211</t>
+          <t>80-150</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>80-312</t>
+          <t>80-211</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3923,22 +3923,20 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>D8-001</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>9</v>
-      </c>
+          <t>80-305 (Spring 2023 and earlier)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>05-360</t>
+          <t>80-306 (Spring 2024 or later)</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,12 +3946,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>17-313</t>
+          <t>80-312</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -3963,12 +3961,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Logic/Mathematical Reasoning---D8-001</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>19-101</t>
+          <t>D8-001</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -3983,11 +3981,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>36-315</t>
+          <t>05-360</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238">
@@ -3998,11 +3996,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>48-095</t>
+          <t>17-313</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239">
@@ -4013,11 +4011,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>49-101</t>
+          <t>19-101</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
@@ -4028,7 +4026,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>70-100</t>
+          <t>36-315</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4043,11 +4041,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>70-122</t>
+          <t>48-095</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -4058,11 +4056,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>70-246</t>
+          <t>49-101</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
@@ -4073,7 +4071,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>70-415</t>
+          <t>70-100</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4088,7 +4086,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>70-122</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4103,11 +4101,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>85-107</t>
+          <t>70-246</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246">
@@ -4118,7 +4116,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>88-150</t>
+          <t>70-415</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4133,7 +4131,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>88-223</t>
+          <t>76-270</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4148,7 +4146,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>88-235</t>
+          <t>85-107</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -4163,7 +4161,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>D9-001</t>
+          <t>88-150</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4173,27 +4171,27 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>66-122</t>
+          <t>88-223</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>66-132</t>
+          <t>88-235</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -4203,12 +4201,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
+          <t>GenEd---GenEd---Disciplinary Perspectives---Additional Disciplines (Business/Design/Engineering)---D9-001</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>66-134</t>
+          <t>D9-001</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4223,7 +4221,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>66-138</t>
+          <t>66-122</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4238,7 +4236,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>66-146</t>
+          <t>66-132</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -4253,7 +4251,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>66-147</t>
+          <t>66-134</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4268,7 +4266,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>66-151</t>
+          <t>66-138</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -4283,7 +4281,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>66-181</t>
+          <t>66-146</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -4298,7 +4296,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>66-182</t>
+          <t>66-147</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -4308,12 +4306,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>36-301</t>
+          <t>66-151</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -4323,12 +4321,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>66-236</t>
+          <t>66-181</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4338,12 +4336,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+          <t>GenEd---GenEd---Special Seminars---Grand Challenge Seminar</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>76-219</t>
+          <t>66-182</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -4358,7 +4356,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>76-327</t>
+          <t>36-301</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -4373,7 +4371,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>76-442</t>
+          <t>66-236</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4388,7 +4386,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>79-210</t>
+          <t>76-219</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -4403,7 +4401,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>79-215</t>
+          <t>76-327</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -4418,7 +4416,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>79-237</t>
+          <t>76-442</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -4433,7 +4431,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>79-270</t>
+          <t>79-210</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -4448,7 +4446,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>79-276</t>
+          <t>79-215</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -4463,7 +4461,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>79-313</t>
+          <t>79-237</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -4478,7 +4476,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>79-321</t>
+          <t>79-270</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4493,7 +4491,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>79-349</t>
+          <t>79-276</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4508,11 +4506,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>79-360</t>
+          <t>79-313</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
@@ -4523,7 +4521,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>79-378</t>
+          <t>79-321</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4538,7 +4536,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>79-380</t>
+          <t>79-349</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -4553,7 +4551,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>79-432</t>
+          <t>79-360</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -4568,7 +4566,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>80-234</t>
+          <t>79-378</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -4583,7 +4581,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>80-245</t>
+          <t>79-380</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -4598,7 +4596,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>80-324</t>
+          <t>79-432</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -4613,7 +4611,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>80-334</t>
+          <t>80-234</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4628,7 +4626,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>80-335</t>
+          <t>80-245</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -4643,7 +4641,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>80-348</t>
+          <t>80-324</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4658,7 +4656,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>82-184</t>
+          <t>80-334</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4673,7 +4671,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>82-224</t>
+          <t>80-335</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -4688,7 +4686,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>82-260</t>
+          <t>80-348</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4703,7 +4701,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>82-289</t>
+          <t>82-184</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -4718,7 +4716,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>82-299</t>
+          <t>82-224</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -4733,7 +4731,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>82-399</t>
+          <t>82-260</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -4748,7 +4746,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>84-309</t>
+          <t>82-289</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4763,7 +4761,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>84-322</t>
+          <t>82-299</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -4778,7 +4776,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>84-352</t>
+          <t>82-399</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -4793,7 +4791,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>84-367</t>
+          <t>84-309</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4808,7 +4806,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>85-350</t>
+          <t>84-322</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -4823,7 +4821,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>88-221</t>
+          <t>84-352</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -4838,7 +4836,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>88-285</t>
+          <t>84-367</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -4853,7 +4851,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>99-262</t>
+          <t>85-350</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -4868,12 +4866,70 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
+          <t>88-221</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>88-285</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>99-262</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd---Special Seminars---Perspectives on Justice and Injustice</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
           <t>99-265</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>9</v>
-      </c>
+      <c r="C299" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>GenEd---GenEd</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Experiential Learning Activity</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
